--- a/excel/LT3756_P3_page_2.xlsx
+++ b/excel/LT3756_P3_page_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>SYNC OR OPENLED</t>
         </is>
       </c>
     </row>
@@ -602,16 +602,6 @@
       <c r="B17" t="inlineStr">
         <is>
           <t>CTRL</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>GND</t>
         </is>
       </c>
     </row>
